--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_quarter.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.06430220027675157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06397546640009821</v>
+        <v>0.05976570080812333</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.5081223896649261</v>
+        <v>-7.0549677135518</v>
       </c>
       <c r="I2" t="n">
-        <v>12.33966782746449</v>
+        <v>-10.85658129332591</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05620703983727632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06456460304846362</v>
+        <v>0.0679854072668568</v>
       </c>
       <c r="H3" t="n">
-        <v>14.86924633530442</v>
+        <v>20.95532421504451</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.02031160804577985</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02035617372782834</v>
+        <v>-0.01987293130034513</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2194099154928795</v>
+        <v>2.15973419950797</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.0114313309642807</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01197277481746975</v>
+        <v>-0.01942756209528249</v>
       </c>
       <c r="H5" t="n">
-        <v>4.736490045480187</v>
+        <v>-69.95013228107459</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.01119355766909296</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0170417853971324</v>
+        <v>-0.004185219196956102</v>
       </c>
       <c r="H6" t="n">
-        <v>52.24637153732854</v>
+        <v>62.61046469156003</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.005663736011200975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.004620454202921409</v>
+        <v>-0.006273027295040768</v>
       </c>
       <c r="H7" t="n">
-        <v>-18.42038199196261</v>
+        <v>-10.75776276709965</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.005689162997188748</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.008539004278616364</v>
+        <v>0.001637362195990166</v>
       </c>
       <c r="H8" t="n">
-        <v>50.0924526654596</v>
+        <v>128.7803706239258</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.00549314623748372</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0008407687912025431</v>
+        <v>-0.006602647764756579</v>
       </c>
       <c r="H9" t="n">
-        <v>-84.6942215835186</v>
+        <v>-20.19792445542275</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.06302175465285266</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05860913039186073</v>
+        <v>-0.05961985043809716</v>
       </c>
       <c r="H10" t="n">
-        <v>-7.00174770648376</v>
+        <v>5.397983971557854</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.06407804798776505</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06430057444095758</v>
+        <v>-0.06011439550248148</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3472740824361795</v>
+        <v>6.185663592686814</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.3946034008486138</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3878514825714858</v>
+        <v>-0.3924494586741473</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.711064390881498</v>
+        <v>0.5458498760614592</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.3921192001403502</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4039482796538597</v>
+        <v>-0.3972110673275344</v>
       </c>
       <c r="H13" t="n">
-        <v>3.016704999213398</v>
+        <v>-1.298550845090402</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.008194263515627137</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02387033706561535</v>
+        <v>-0.029078031878882</v>
       </c>
       <c r="H14" t="n">
-        <v>191.305460461366</v>
+        <v>-254.8583935997151</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.04531867545837153</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03449028760100771</v>
+        <v>-0.01641909250093018</v>
       </c>
       <c r="H15" t="n">
-        <v>-23.89387542297099</v>
+        <v>63.76969905924921</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1367496493365438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1380925959290335</v>
+        <v>0.1392673142470738</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9820475584435961</v>
+        <v>1.84107595357264</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.139470638516013</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1374302063252032</v>
+        <v>0.1471350991494476</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.462983329337469</v>
+        <v>5.495393664921557</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1176682078228325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1209053089536358</v>
+        <v>0.1162280770196786</v>
       </c>
       <c r="H18" t="n">
-        <v>2.751041416112376</v>
+        <v>-1.223891168056393</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1286688512358997</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1265095443888782</v>
+        <v>0.1301526247866527</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.678189263586909</v>
+        <v>1.153172299667688</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0887346326950179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08428459852966734</v>
+        <v>0.08466031211345856</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.014991362668265</v>
+        <v>-4.591578798283673</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0870910252674075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09215834991272263</v>
+        <v>0.09460642344713517</v>
       </c>
       <c r="H21" t="n">
-        <v>5.818423459542739</v>
+        <v>8.629360093823806</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.09348316940674502</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.08902074560566633</v>
+        <v>-0.09604312390261531</v>
       </c>
       <c r="H22" t="n">
-        <v>-4.773505037749297</v>
+        <v>-2.738412178487378</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.1014450181243147</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1013541540045593</v>
+        <v>-0.1075269800455612</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.08956981962785758</v>
+        <v>-5.995328340119603</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1610910614870565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1598874055179978</v>
+        <v>0.1637253715976425</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.7471897931192368</v>
+        <v>1.635292539678031</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1705957319629827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1690203972474683</v>
+        <v>0.1731093553342201</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.9234314935007935</v>
+        <v>1.473438603834955</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.09065379568887895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09681787871477175</v>
+        <v>0.09614473738344895</v>
       </c>
       <c r="H26" t="n">
-        <v>6.799586249038867</v>
+        <v>6.057045546570098</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08596174627959136</v>
       </c>
       <c r="G27" t="n">
-        <v>0.087630346604735</v>
+        <v>0.09553631476917235</v>
       </c>
       <c r="H27" t="n">
-        <v>1.941096356647412</v>
+        <v>11.13817355273312</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1376404363611178</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1317870743601801</v>
+        <v>-0.1347967142038938</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.252647082272124</v>
+        <v>2.06605139623586</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.139799765468738</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1349804125502413</v>
+        <v>-0.1321370538260386</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.447325467491163</v>
+        <v>5.481204934076191</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.05201527458957067</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04591160787458947</v>
+        <v>0.04097370250001889</v>
       </c>
       <c r="H30" t="n">
-        <v>-11.73437372606895</v>
+        <v>-21.22755705256947</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.04381940301294323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0430916392560096</v>
+        <v>0.05076432056760785</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.660825357932562</v>
+        <v>15.8489552051023</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.1087039316652881</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1117300823752866</v>
+        <v>0.1135982688903562</v>
       </c>
       <c r="H32" t="n">
-        <v>2.783846603926306</v>
+        <v>4.502447289706424</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1240951924378725</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1132818698598498</v>
+        <v>0.1151390882572715</v>
       </c>
       <c r="H33" t="n">
-        <v>-8.713732067772346</v>
+        <v>-7.217124212998677</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01561639394697787</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01541419508290173</v>
+        <v>-0.01539632928691434</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.294785881828188</v>
+        <v>1.409189988487183</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01673728840714555</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01418210772840967</v>
+        <v>-0.01137966929216473</v>
       </c>
       <c r="H35" t="n">
-        <v>-15.26639570627827</v>
+        <v>32.01007824357931</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0367669095218597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03007917408327361</v>
+        <v>0.03612817292176713</v>
       </c>
       <c r="H36" t="n">
-        <v>-18.18955012960746</v>
+        <v>-1.737259422668674</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.03568564846322125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03237143778764712</v>
+        <v>0.03104115748035275</v>
       </c>
       <c r="H37" t="n">
-        <v>-9.287236797699965</v>
+        <v>-13.01501074768267</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1003022293749185</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0981567273120879</v>
+        <v>0.1071500297611073</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.139037263878715</v>
+        <v>6.82716668299812</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.09740001496869774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09777483288580512</v>
+        <v>0.1036507264547394</v>
       </c>
       <c r="H39" t="n">
-        <v>0.384823264378177</v>
+        <v>6.417567274553809</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.03368761974707651</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03252718855481043</v>
+        <v>0.03079211631859983</v>
       </c>
       <c r="H40" t="n">
-        <v>-3.444681461553186</v>
+        <v>-8.595155876894381</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.03221872503435347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03603392057576444</v>
+        <v>0.0334346923000989</v>
       </c>
       <c r="H41" t="n">
-        <v>11.84154722864728</v>
+        <v>3.774101130472719</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.120905430485417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1178468232228951</v>
+        <v>0.1187413181626411</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.529751765691637</v>
+        <v>-1.789921523034432</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1277854472102046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1251540750915547</v>
+        <v>0.1273700667740273</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.05921110431404</v>
+        <v>-0.3250608306703475</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03966663921623352</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03919687611978671</v>
+        <v>0.03434911578676667</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.184277533284352</v>
+        <v>-13.40553052775557</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.03116235293120943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03809359190311287</v>
+        <v>0.03613334281934084</v>
       </c>
       <c r="H45" t="n">
-        <v>22.24234796134964</v>
+        <v>15.95190805747183</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05661766501078581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06560918023504145</v>
+        <v>0.05775645585319572</v>
       </c>
       <c r="H46" t="n">
-        <v>15.88111276320338</v>
+        <v>2.011370200789755</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.05867018666263921</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06229467580475125</v>
+        <v>0.06126035046565886</v>
       </c>
       <c r="H47" t="n">
-        <v>6.177735828510833</v>
+        <v>4.414787050045385</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.0492573227224047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05046268573724817</v>
+        <v>0.05189510672561686</v>
       </c>
       <c r="H48" t="n">
-        <v>2.447073751118055</v>
+        <v>5.355110382425165</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.04556774728077833</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04903155708881356</v>
+        <v>0.04471712144371884</v>
       </c>
       <c r="H49" t="n">
-        <v>7.601450619649905</v>
+        <v>-1.866727867450029</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.02648648375354524</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02817619620979371</v>
+        <v>0.02981843696220924</v>
       </c>
       <c r="H50" t="n">
-        <v>6.379527278785352</v>
+        <v>12.57982463685091</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.02801586845999868</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03175890647163254</v>
+        <v>0.02612960981444661</v>
       </c>
       <c r="H51" t="n">
-        <v>13.36042113767848</v>
+        <v>-6.732822322625085</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.0869236411111307</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.09183444564341478</v>
+        <v>-0.08891397169286448</v>
       </c>
       <c r="H52" t="n">
-        <v>5.649561465108998</v>
+        <v>-2.289745984281968</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.08021620192907158</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.08137415760390315</v>
+        <v>-0.0798288179252052</v>
       </c>
       <c r="H53" t="n">
-        <v>1.443543382738876</v>
+        <v>0.4829248886763735</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05002670192732103</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04916558310608047</v>
+        <v>0.05430404335337361</v>
       </c>
       <c r="H54" t="n">
-        <v>-1.721318392109076</v>
+        <v>8.550116760178826</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.05628505677750023</v>
       </c>
       <c r="G55" t="n">
-        <v>0.04939825974420867</v>
+        <v>0.05236120690121006</v>
       </c>
       <c r="H55" t="n">
-        <v>-12.23556913252425</v>
+        <v>-6.971388323905393</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04943189498738422</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0528007702376108</v>
+        <v>0.0493017466570904</v>
       </c>
       <c r="H56" t="n">
-        <v>6.815185319289037</v>
+        <v>-0.2632881671379027</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.03798397785815282</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04934413621630712</v>
+        <v>0.04703817509318357</v>
       </c>
       <c r="H57" t="n">
-        <v>29.90776374338048</v>
+        <v>23.83688530159399</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.05761405260974202</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05147627932250581</v>
+        <v>0.05698018807881352</v>
       </c>
       <c r="H58" t="n">
-        <v>-10.65325733777382</v>
+        <v>-1.100190842713466</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.05701330928205455</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05738787306676798</v>
+        <v>0.05547448007740317</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6569760454710614</v>
+        <v>-2.699070136480825</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.0274599995184495</v>
       </c>
       <c r="G60" t="n">
-        <v>0.023125844999581</v>
+        <v>0.02899252505027517</v>
       </c>
       <c r="H60" t="n">
-        <v>-15.78352001046657</v>
+        <v>5.580937941371831</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.02669782531682307</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03083467703493065</v>
+        <v>0.02512435341370487</v>
       </c>
       <c r="H61" t="n">
-        <v>15.49508871608667</v>
+        <v>-5.893633224600912</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06244723127188902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06307005892959983</v>
+        <v>0.06381419547026682</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9973663283790426</v>
+        <v>2.188990881639208</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.06388266935418922</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06531631834983936</v>
+        <v>0.06309197299284462</v>
       </c>
       <c r="H63" t="n">
-        <v>2.244190811284762</v>
+        <v>-1.237732188303977</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.02773965742366112</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02649157875999352</v>
+        <v>0.0314809602244901</v>
       </c>
       <c r="H64" t="n">
-        <v>-4.499257667843529</v>
+        <v>13.48719900786431</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.03542725191258321</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03723987848294333</v>
+        <v>0.03331384004207594</v>
       </c>
       <c r="H65" t="n">
-        <v>5.116475234468585</v>
+        <v>-5.965497622344854</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.07768318116585711</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08237078001361468</v>
+        <v>0.0740146325386359</v>
       </c>
       <c r="H66" t="n">
-        <v>6.034251915803162</v>
+        <v>-4.722449019419912</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.07887083315115107</v>
       </c>
       <c r="G67" t="n">
-        <v>0.07880380484030435</v>
+        <v>0.0849410701845828</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.08498491542274507</v>
+        <v>7.696428186321429</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.02174569273343878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.02173915481212676</v>
+        <v>-0.01933166150326306</v>
       </c>
       <c r="H68" t="n">
-        <v>-0.03006536233250065</v>
+        <v>11.10119258911268</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.01914131219638707</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01765551955339577</v>
+        <v>-0.02300302133597345</v>
       </c>
       <c r="H69" t="n">
-        <v>-7.762229818662812</v>
+        <v>-20.174735671023</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.07198586282950344</v>
       </c>
       <c r="G70" t="n">
-        <v>0.06955448420210386</v>
+        <v>0.0689355721123537</v>
       </c>
       <c r="H70" t="n">
-        <v>-3.377577946322917</v>
+        <v>-4.237346886254972</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.07942103784650886</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07002152793407153</v>
+        <v>0.07260196555643064</v>
       </c>
       <c r="H71" t="n">
-        <v>-11.83503787825471</v>
+        <v>-8.5859773115241</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.153641482353053</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1419245712308994</v>
+        <v>-0.1439372952536587</v>
       </c>
       <c r="H72" t="n">
-        <v>-7.626137773930925</v>
+        <v>6.316124363532913</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.1530755548355022</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1516555950538702</v>
+        <v>-0.155855605668093</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.9276202089601585</v>
+        <v>-1.816129842271878</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.1504191938700591</v>
       </c>
       <c r="G74" t="n">
-        <v>0.152170398350419</v>
+        <v>0.1508356937617299</v>
       </c>
       <c r="H74" t="n">
-        <v>1.164216105208433</v>
+        <v>0.2768927827326374</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.1504473245389763</v>
       </c>
       <c r="G75" t="n">
-        <v>0.153256633136961</v>
+        <v>0.15147854307786</v>
       </c>
       <c r="H75" t="n">
-        <v>1.867303793266788</v>
+        <v>0.6854349467786852</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>-0.001036461659646316</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.009557703657582496</v>
+        <v>-0.01077430611214037</v>
       </c>
       <c r="H76" t="n">
-        <v>822.1473431872033</v>
+        <v>-939.5277058118113</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.002207887785011652</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.002213679294352573</v>
+        <v>-0.001921176400190697</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2623099498188788</v>
+        <v>12.98577702939925</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.08995825041656207</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09524419011630321</v>
+        <v>0.09065826624400664</v>
       </c>
       <c r="H78" t="n">
-        <v>5.875992113301436</v>
+        <v>0.7781563383047863</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.09690136472519406</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09673308410363977</v>
+        <v>0.08880881285479843</v>
       </c>
       <c r="H79" t="n">
-        <v>-0.1736617663038285</v>
+        <v>-8.351329099797079</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.2164333678654655</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2327079874135239</v>
+        <v>-0.2237385932061497</v>
       </c>
       <c r="H80" t="n">
-        <v>7.519459549404905</v>
+        <v>-3.375276840503223</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2131138853448898</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2112898921682496</v>
+        <v>-0.2219503102922142</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.8558772102945641</v>
+        <v>-4.146339377663788</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1676176682046469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1753956847366002</v>
+        <v>0.181620894101806</v>
       </c>
       <c r="H82" t="n">
-        <v>4.640332141154111</v>
+        <v>8.354266019297176</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1760289321846955</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1781072401266297</v>
+        <v>0.1860061220000803</v>
       </c>
       <c r="H83" t="n">
-        <v>1.180662699103104</v>
+        <v>5.667926113939258</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.1061296970151781</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1136648496478043</v>
+        <v>0.109994194044831</v>
       </c>
       <c r="H84" t="n">
-        <v>7.099947370572964</v>
+        <v>3.641296581766572</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.1045588069048112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1044310950858842</v>
+        <v>0.1107024372627287</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.1221435311931832</v>
+        <v>5.875765552212708</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_quarter.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 125/S&P500_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06430220027675157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05976570080812333</v>
+        <v>0.0687161128519025</v>
       </c>
       <c r="H2" t="n">
-        <v>-7.0549677135518</v>
+        <v>6.864325880224633</v>
       </c>
       <c r="I2" t="n">
-        <v>-10.85658129332591</v>
+        <v>-12.96281062771407</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05620703983727632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0679854072668568</v>
+        <v>0.06962990972764119</v>
       </c>
       <c r="H3" t="n">
-        <v>20.95532421504451</v>
+        <v>23.88111868055159</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.02031160804577985</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01987293130034513</v>
+        <v>-0.01781769405652903</v>
       </c>
       <c r="H4" t="n">
-        <v>2.15973419950797</v>
+        <v>12.27826956698774</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.0114313309642807</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01942756209528249</v>
+        <v>-0.01279179220849823</v>
       </c>
       <c r="H5" t="n">
-        <v>-69.95013228107459</v>
+        <v>-11.90116223971244</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.01119355766909296</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.004185219196956102</v>
+        <v>-0.01072865862316981</v>
       </c>
       <c r="H6" t="n">
-        <v>62.61046469156003</v>
+        <v>4.153273335132798</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.005663736011200975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.006273027295040768</v>
+        <v>-0.001035909746857211</v>
       </c>
       <c r="H7" t="n">
-        <v>-10.75776276709965</v>
+        <v>81.7097805263429</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.005689162997188748</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001637362195990166</v>
+        <v>-0.01166555266453533</v>
       </c>
       <c r="H8" t="n">
-        <v>128.7803706239258</v>
+        <v>-105.0486630511336</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.00549314623748372</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.006602647764756579</v>
+        <v>-0.01080026839265989</v>
       </c>
       <c r="H9" t="n">
-        <v>-20.19792445542275</v>
+        <v>-96.61352393937428</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.06302175465285266</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05961985043809716</v>
+        <v>-0.06945140951564707</v>
       </c>
       <c r="H10" t="n">
-        <v>5.397983971557854</v>
+        <v>-10.20227840086546</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.06407804798776505</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06011439550248148</v>
+        <v>-0.07088649740807156</v>
       </c>
       <c r="H11" t="n">
-        <v>6.185663592686814</v>
+        <v>-10.62524473530545</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.3946034008486138</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3924494586741473</v>
+        <v>-0.3801062574092129</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5458498760614592</v>
+        <v>3.673851621203487</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.3921192001403502</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3972110673275344</v>
+        <v>-0.4033861550113001</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.298550845090402</v>
+        <v>-2.87334944754482</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.008194263515627137</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.029078031878882</v>
+        <v>-0.01791969331787071</v>
       </c>
       <c r="H14" t="n">
-        <v>-254.8583935997151</v>
+        <v>-118.6858316637777</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.04531867545837153</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01641909250093018</v>
+        <v>-0.02517251015128741</v>
       </c>
       <c r="H15" t="n">
-        <v>63.76969905924921</v>
+        <v>44.45444422926664</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1367496493365438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1392673142470738</v>
+        <v>0.137479837345001</v>
       </c>
       <c r="H16" t="n">
-        <v>1.84107595357264</v>
+        <v>0.5339596934981469</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.139470638516013</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1471350991494476</v>
+        <v>0.1463664972265752</v>
       </c>
       <c r="H17" t="n">
-        <v>5.495393664921557</v>
+        <v>4.944308554069225</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1176682078228325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1162280770196786</v>
+        <v>0.118676273737338</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.223891168056393</v>
+        <v>0.8567020210108911</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1286688512358997</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1301526247866527</v>
+        <v>0.1247092161422848</v>
       </c>
       <c r="H19" t="n">
-        <v>1.153172299667688</v>
+        <v>-3.077384351831464</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0887346326950179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08466031211345856</v>
+        <v>0.08562269976166079</v>
       </c>
       <c r="H20" t="n">
-        <v>-4.591578798283673</v>
+        <v>-3.507010553650305</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0870910252674075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09460642344713517</v>
+        <v>0.08551956517455996</v>
       </c>
       <c r="H21" t="n">
-        <v>8.629360093823806</v>
+        <v>-1.804388096273384</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.09348316940674502</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.09604312390261531</v>
+        <v>-0.1012253982017692</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.738412178487378</v>
+        <v>-8.281949407746087</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.1014450181243147</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1075269800455612</v>
+        <v>-0.09776948567779378</v>
       </c>
       <c r="H23" t="n">
-        <v>-5.995328340119603</v>
+        <v>3.623176883872968</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1610910614870565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1637253715976425</v>
+        <v>0.1579489941306083</v>
       </c>
       <c r="H24" t="n">
-        <v>1.635292539678031</v>
+        <v>-1.950491434747088</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1705957319629827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1731093553342201</v>
+        <v>0.169370734164759</v>
       </c>
       <c r="H25" t="n">
-        <v>1.473438603834955</v>
+        <v>-0.7180706012560135</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.09065379568887895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09614473738344895</v>
+        <v>0.09968957830647295</v>
       </c>
       <c r="H26" t="n">
-        <v>6.057045546570098</v>
+        <v>9.967351668985296</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08596174627959136</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09553631476917235</v>
+        <v>0.09043425337695868</v>
       </c>
       <c r="H27" t="n">
-        <v>11.13817355273312</v>
+        <v>5.202903955464625</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1376404363611178</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1347967142038938</v>
+        <v>-0.1304852900002428</v>
       </c>
       <c r="H28" t="n">
-        <v>2.06605139623586</v>
+        <v>5.198433360166433</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.139799765468738</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1321370538260386</v>
+        <v>-0.1402205903515006</v>
       </c>
       <c r="H29" t="n">
-        <v>5.481204934076191</v>
+        <v>-0.3010197344406161</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.05201527458957067</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04097370250001889</v>
+        <v>0.0477613497369185</v>
       </c>
       <c r="H30" t="n">
-        <v>-21.22755705256947</v>
+        <v>-8.178222428350121</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.04381940301294323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05076432056760785</v>
+        <v>0.04858110923370425</v>
       </c>
       <c r="H31" t="n">
-        <v>15.8489552051023</v>
+        <v>10.86666155482429</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.1087039316652881</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1135982688903562</v>
+        <v>0.1162055733462721</v>
       </c>
       <c r="H32" t="n">
-        <v>4.502447289706424</v>
+        <v>6.900984689387695</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1240951924378725</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1151390882572715</v>
+        <v>0.1152263702669514</v>
       </c>
       <c r="H33" t="n">
-        <v>-7.217124212998677</v>
+        <v>-7.146789490141786</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01561639394697787</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01539632928691434</v>
+        <v>-0.01328841399165122</v>
       </c>
       <c r="H34" t="n">
-        <v>1.409189988487183</v>
+        <v>14.90728245733816</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01673728840714555</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01137966929216473</v>
+        <v>-0.0132704151696055</v>
       </c>
       <c r="H35" t="n">
-        <v>32.01007824357931</v>
+        <v>20.71347014645429</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0367669095218597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03612817292176713</v>
+        <v>0.03530580708966877</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.737259422668674</v>
+        <v>-3.973960420367229</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.03568564846322125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03104115748035275</v>
+        <v>0.03435633251965751</v>
       </c>
       <c r="H37" t="n">
-        <v>-13.01501074768267</v>
+        <v>-3.725071564648125</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1003022293749185</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1071500297611073</v>
+        <v>0.09931858199055098</v>
       </c>
       <c r="H38" t="n">
-        <v>6.82716668299812</v>
+        <v>-0.9806834708436681</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.09740001496869774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1036507264547394</v>
+        <v>0.09458493476401787</v>
       </c>
       <c r="H39" t="n">
-        <v>6.417567274553809</v>
+        <v>-2.890225638655779</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.03368761974707651</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03079211631859983</v>
+        <v>0.0329659758490939</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.595155876894381</v>
+        <v>-2.142163511107762</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.03221872503435347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0334346923000989</v>
+        <v>0.03147227944696478</v>
       </c>
       <c r="H41" t="n">
-        <v>3.774101130472719</v>
+        <v>-2.316806722155458</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.120905430485417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1187413181626411</v>
+        <v>0.1189971445072512</v>
       </c>
       <c r="H42" t="n">
-        <v>-1.789921523034432</v>
+        <v>-1.578329418707107</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1277854472102046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1273700667740273</v>
+        <v>0.1269318328390656</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.3250608306703475</v>
+        <v>-0.6680059347719242</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03966663921623352</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03434911578676667</v>
+        <v>0.04012999885591129</v>
       </c>
       <c r="H44" t="n">
-        <v>-13.40553052775557</v>
+        <v>1.16813435378751</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.03116235293120943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03613334281934084</v>
+        <v>0.03107227238396221</v>
       </c>
       <c r="H45" t="n">
-        <v>15.95190805747183</v>
+        <v>-0.2890685034152298</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05661766501078581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05775645585319572</v>
+        <v>0.06192739713121615</v>
       </c>
       <c r="H46" t="n">
-        <v>2.011370200789755</v>
+        <v>9.378225187172283</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.05867018666263921</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06126035046565886</v>
+        <v>0.06423241472782022</v>
       </c>
       <c r="H47" t="n">
-        <v>4.414787050045385</v>
+        <v>9.480501736196121</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.0492573227224047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.05189510672561686</v>
+        <v>0.04320505156588467</v>
       </c>
       <c r="H48" t="n">
-        <v>5.355110382425165</v>
+        <v>-12.28704854835148</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.04556774728077833</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04471712144371884</v>
+        <v>0.05107741030319914</v>
       </c>
       <c r="H49" t="n">
-        <v>-1.866727867450029</v>
+        <v>12.09114637261196</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.02648648375354524</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02981843696220924</v>
+        <v>0.02537628235974115</v>
       </c>
       <c r="H50" t="n">
-        <v>12.57982463685091</v>
+        <v>-4.191577123390303</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.02801586845999868</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02612960981444661</v>
+        <v>0.02111242018220849</v>
       </c>
       <c r="H51" t="n">
-        <v>-6.732822322625085</v>
+        <v>-24.64120749155786</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.0869236411111307</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.08891397169286448</v>
+        <v>-0.08059614848701571</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.289745984281968</v>
+        <v>7.279369045327234</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.08021620192907158</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0798288179252052</v>
+        <v>-0.08056311380526139</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4829248886763735</v>
+        <v>-0.4324710817105894</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05002670192732103</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05430404335337361</v>
+        <v>0.05074865819560606</v>
       </c>
       <c r="H54" t="n">
-        <v>8.550116760178826</v>
+        <v>1.443141843197838</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.05628505677750023</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05236120690121006</v>
+        <v>0.05378065964043954</v>
       </c>
       <c r="H55" t="n">
-        <v>-6.971388323905393</v>
+        <v>-4.449488515150281</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04943189498738422</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0493017466570904</v>
+        <v>0.04758644232247539</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.2632881671379027</v>
+        <v>-3.733323728292866</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.03798397785815282</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04703817509318357</v>
+        <v>0.0473998097331657</v>
       </c>
       <c r="H57" t="n">
-        <v>23.83688530159399</v>
+        <v>24.78895683378744</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.05761405260974202</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05698018807881352</v>
+        <v>0.05702397961730128</v>
       </c>
       <c r="H58" t="n">
-        <v>-1.100190842713466</v>
+        <v>-1.024182409867418</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.05701330928205455</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05547448007740317</v>
+        <v>0.05450743124128897</v>
       </c>
       <c r="H59" t="n">
-        <v>-2.699070136480825</v>
+        <v>-4.395250990200509</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.0274599995184495</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02899252505027517</v>
+        <v>0.03064826071491992</v>
       </c>
       <c r="H60" t="n">
-        <v>5.580937941371831</v>
+        <v>11.61056537647907</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.02669782531682307</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02512435341370487</v>
+        <v>0.03199557913181796</v>
       </c>
       <c r="H61" t="n">
-        <v>-5.893633224600912</v>
+        <v>19.84339080852636</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06244723127188902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06381419547026682</v>
+        <v>0.06446805011198303</v>
       </c>
       <c r="H62" t="n">
-        <v>2.188990881639208</v>
+        <v>3.236042333559309</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.06388266935418922</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06309197299284462</v>
+        <v>0.06781019502107434</v>
       </c>
       <c r="H63" t="n">
-        <v>-1.237732188303977</v>
+        <v>6.148029984641779</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.02773965742366112</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0314809602244901</v>
+        <v>0.02858970992060214</v>
       </c>
       <c r="H64" t="n">
-        <v>13.48719900786431</v>
+        <v>3.064394357718167</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.03542725191258321</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03331384004207594</v>
+        <v>0.03685844230668094</v>
       </c>
       <c r="H65" t="n">
-        <v>-5.965497622344854</v>
+        <v>4.039800765888352</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.07768318116585711</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0740146325386359</v>
+        <v>0.07671251759413329</v>
       </c>
       <c r="H66" t="n">
-        <v>-4.722449019419912</v>
+        <v>-1.249515734495227</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.07887083315115107</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0849410701845828</v>
+        <v>0.0845408478024388</v>
       </c>
       <c r="H67" t="n">
-        <v>7.696428186321429</v>
+        <v>7.188987899267529</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.02174569273343878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01933166150326306</v>
+        <v>-0.02498525822933346</v>
       </c>
       <c r="H68" t="n">
-        <v>11.10119258911268</v>
+        <v>-14.89750423500255</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.01914131219638707</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.02300302133597345</v>
+        <v>-0.0260478217823271</v>
       </c>
       <c r="H69" t="n">
-        <v>-20.174735671023</v>
+        <v>-36.08169343397281</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.07198586282950344</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0689355721123537</v>
+        <v>0.07086713855102622</v>
       </c>
       <c r="H70" t="n">
-        <v>-4.237346886254972</v>
+        <v>-1.554088864819031</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.07942103784650886</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07260196555643064</v>
+        <v>0.07987693348424307</v>
       </c>
       <c r="H71" t="n">
-        <v>-8.5859773115241</v>
+        <v>0.5740237726624602</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.153641482353053</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1439372952536587</v>
+        <v>-0.1440877469593357</v>
       </c>
       <c r="H72" t="n">
-        <v>6.316124363532913</v>
+        <v>6.218200480364896</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.1530755548355022</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.155855605668093</v>
+        <v>-0.144243303121051</v>
       </c>
       <c r="H73" t="n">
-        <v>-1.816129842271878</v>
+        <v>5.769864250332136</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.1504191938700591</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1508356937617299</v>
+        <v>0.1517473851888521</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2768927827326374</v>
+        <v>0.8829932434955047</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.1504473245389763</v>
       </c>
       <c r="G75" t="n">
-        <v>0.15147854307786</v>
+        <v>0.1571684401280606</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6854349467786852</v>
+        <v>4.467421145361128</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>-0.001036461659646316</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01077430611214037</v>
+        <v>-0.008067577993101892</v>
       </c>
       <c r="H76" t="n">
-        <v>-939.5277058118113</v>
+        <v>-678.3768862086888</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.002207887785011652</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.001921176400190697</v>
+        <v>-0.008625555004576185</v>
       </c>
       <c r="H77" t="n">
-        <v>12.98577702939925</v>
+        <v>-290.6699907092726</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.08995825041656207</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09065826624400664</v>
+        <v>0.08539625475252073</v>
       </c>
       <c r="H78" t="n">
-        <v>0.7781563383047863</v>
+        <v>-5.071236537967876</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.09690136472519406</v>
       </c>
       <c r="G79" t="n">
-        <v>0.08880881285479843</v>
+        <v>0.09402122229861852</v>
       </c>
       <c r="H79" t="n">
-        <v>-8.351329099797079</v>
+        <v>-2.97224134535508</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.2164333678654655</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2237385932061497</v>
+        <v>-0.2307425332813548</v>
       </c>
       <c r="H80" t="n">
-        <v>-3.375276840503223</v>
+        <v>-6.611349052602579</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2131138853448898</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2219503102922142</v>
+        <v>-0.2028755601880298</v>
       </c>
       <c r="H81" t="n">
-        <v>-4.146339377663788</v>
+        <v>4.804156772934314</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1676176682046469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.181620894101806</v>
+        <v>0.1740152756391153</v>
       </c>
       <c r="H82" t="n">
-        <v>8.354266019297176</v>
+        <v>3.816785845426194</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1760289321846955</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1860061220000803</v>
+        <v>0.1809372884403179</v>
       </c>
       <c r="H83" t="n">
-        <v>5.667926113939258</v>
+        <v>2.78838040696195</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.1061296970151781</v>
       </c>
       <c r="G84" t="n">
-        <v>0.109994194044831</v>
+        <v>0.1099987507459851</v>
       </c>
       <c r="H84" t="n">
-        <v>3.641296581766572</v>
+        <v>3.645590103073284</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,14 +3242,14 @@
         <v>0.1045588069048112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1107024372627287</v>
+        <v>0.1032876397970545</v>
       </c>
       <c r="H85" t="n">
-        <v>5.875765552212708</v>
+        <v>-1.215743700015579</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>